--- a/data/trans_dic/P04D$colectiva-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Dificultad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.004927098226990867</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.01838682687419773</v>
+        <v>0.01838682687419774</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.02719600888529533</v>
@@ -664,7 +664,7 @@
         <v>0.0078494982984143</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.02585548885030041</v>
+        <v>0.0258554888503004</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01487496029040536</v>
+        <v>0.01544218377792017</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001664714688610118</v>
+        <v>0.001701812113180863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009061810305453954</v>
+        <v>0.008280793884323965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01846865246665278</v>
+        <v>0.01905270507374517</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00578075657912362</v>
+        <v>0.005703334843655008</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02013876340778008</v>
+        <v>0.02024165132579061</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01943396912043267</v>
+        <v>0.01899289481942436</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.00457999673296131</v>
+        <v>0.004581703916224157</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01742915686213639</v>
+        <v>0.0176341156870225</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03462945120067232</v>
+        <v>0.03286122020687612</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01063332479207638</v>
+        <v>0.01174868514123177</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03445540918251485</v>
+        <v>0.03374569438584532</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03815011036880145</v>
+        <v>0.03876052701265575</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01657891056560087</v>
+        <v>0.0179459190072338</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05217608418971432</v>
+        <v>0.0505805694557074</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03291104543450155</v>
+        <v>0.03244415043204758</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01230071880535658</v>
+        <v>0.01180984166748812</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03684539535706487</v>
+        <v>0.03693789944230974</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02171649172443227</v>
+        <v>0.02155319583171219</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0137090416243794</v>
+        <v>0.01395449784646136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02215557904609298</v>
+        <v>0.022040754436724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02032967141273526</v>
+        <v>0.01987694799998489</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01543663422600685</v>
+        <v>0.01500288162954941</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02334671826602321</v>
+        <v>0.02320997957647132</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02294306445911971</v>
+        <v>0.02333932349188453</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01649331880939785</v>
+        <v>0.01678091736248319</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0247719855637163</v>
+        <v>0.02538347155222484</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04389388218884643</v>
+        <v>0.04273527623745927</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03240832855197175</v>
+        <v>0.03224168539140009</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04863333086415228</v>
+        <v>0.0465892430407577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04209936540171989</v>
+        <v>0.04092905416357096</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03460466379421888</v>
+        <v>0.03517300694804679</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0408755524761477</v>
+        <v>0.04012802613366792</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03796377323342275</v>
+        <v>0.03831046986462549</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03017025356749209</v>
+        <v>0.0306141559361676</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03880537401026098</v>
+        <v>0.04038175918729058</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.05099163270651158</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.06617668756264532</v>
+        <v>0.0661766875626453</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.02640188508386087</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01723276402576866</v>
+        <v>0.01694697891084674</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03803589229290283</v>
+        <v>0.03629485647090589</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05168253141173352</v>
+        <v>0.05247866506838434</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01717888692721966</v>
+        <v>0.0162227524709595</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02152436693534941</v>
+        <v>0.02164501193199787</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06714290443881063</v>
+        <v>0.06575524708559011</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01926967539832006</v>
+        <v>0.01937853503819245</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03317283901002659</v>
+        <v>0.03284711850293118</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06290293774098998</v>
+        <v>0.06279083786748596</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03934074851844955</v>
+        <v>0.0399875521394623</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07043274972337325</v>
+        <v>0.06860048329960175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08453526623274052</v>
+        <v>0.0850581867331187</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04039942215625782</v>
+        <v>0.03971757487890222</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04925443251387891</v>
+        <v>0.04995620645122437</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09561281161453115</v>
+        <v>0.09554522388589098</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03446073595763759</v>
+        <v>0.03381686499527527</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05496287479933716</v>
+        <v>0.05375627822074024</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08440164322298911</v>
+        <v>0.08360387615916973</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.05294827433176082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.09920533925731567</v>
+        <v>0.0992053392573157</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.02213549699975488</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04076833092783886</v>
+        <v>0.04096204736184424</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03628885217837811</v>
+        <v>0.0348390533583624</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08164955872072382</v>
+        <v>0.08176052714499604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01100511645764504</v>
+        <v>0.01105969571153773</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03527100995919485</v>
+        <v>0.03626756811464483</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08145428633161603</v>
+        <v>0.08191843591894535</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03074944804939615</v>
+        <v>0.02973964057942966</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04036947187917184</v>
+        <v>0.0402514098016798</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08561085548004531</v>
+        <v>0.08612461468595292</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08838388723351591</v>
+        <v>0.08822560033944005</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0760863520611894</v>
+        <v>0.07507160201764447</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1191057712207732</v>
+        <v>0.1207857277814977</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03988784846269902</v>
+        <v>0.03944174856093904</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.077720710910714</v>
+        <v>0.07897580388925197</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1159755484422341</v>
+        <v>0.1135986342275773</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05761458220825087</v>
+        <v>0.05622562357902382</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06837238817692522</v>
+        <v>0.06954409289665613</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1113850822619964</v>
+        <v>0.1111091480154075</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.02639923698091819</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.06027891006654655</v>
+        <v>0.06027891006654654</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02565807783055476</v>
+        <v>0.02595757047790933</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02256391937075262</v>
+        <v>0.02297596462616509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05164979234587711</v>
+        <v>0.05147327372540732</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02167658548057077</v>
+        <v>0.02168584467137723</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01973543192912217</v>
+        <v>0.01992978054625498</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05464207681128726</v>
+        <v>0.05379602096973134</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02535765528697215</v>
+        <v>0.02530267800965303</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02297900881362871</v>
+        <v>0.02256901766465233</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05513130475458587</v>
+        <v>0.05499113670962902</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03790982236799978</v>
+        <v>0.03814217230831762</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03375573176303092</v>
+        <v>0.03494583656985401</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06749138668536436</v>
+        <v>0.06702662124767296</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03327129988839648</v>
+        <v>0.03309753462874433</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03047279048244164</v>
+        <v>0.0310207263754795</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06833576542496091</v>
+        <v>0.06799932524661335</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03365057422449574</v>
+        <v>0.03346201417907278</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03050848952484137</v>
+        <v>0.03037441403968747</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06604275970619841</v>
+        <v>0.06548608175447497</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15465</v>
+        <v>16055</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1878</v>
+        <v>1920</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4501</v>
+        <v>4113</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20606</v>
+        <v>21258</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7281</v>
+        <v>7184</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12534</v>
+        <v>12598</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>41888</v>
+        <v>40937</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10935</v>
+        <v>10939</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19505</v>
+        <v>19734</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>36004</v>
+        <v>34165</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11994</v>
+        <v>13252</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17114</v>
+        <v>16762</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42565</v>
+        <v>43246</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20882</v>
+        <v>22604</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32472</v>
+        <v>31479</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>70937</v>
+        <v>69930</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29369</v>
+        <v>28197</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>41233</v>
+        <v>41336</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21178</v>
+        <v>21019</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12459</v>
+        <v>12682</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21272</v>
+        <v>21162</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22246</v>
+        <v>21751</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15537</v>
+        <v>15100</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26036</v>
+        <v>25884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>47480</v>
+        <v>48300</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>31590</v>
+        <v>32140</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>51410</v>
+        <v>52679</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>42805</v>
+        <v>41675</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29453</v>
+        <v>29302</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>46695</v>
+        <v>44732</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>46068</v>
+        <v>44787</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>34829</v>
+        <v>35401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45584</v>
+        <v>44751</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>78564</v>
+        <v>79282</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>57785</v>
+        <v>58635</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>80534</v>
+        <v>83806</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15253</v>
+        <v>15000</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31332</v>
+        <v>29898</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>54023</v>
+        <v>54855</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15045</v>
+        <v>14208</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16597</v>
+        <v>16690</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>70107</v>
+        <v>68658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33932</v>
+        <v>34124</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>52905</v>
+        <v>52385</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>131431</v>
+        <v>131197</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34821</v>
+        <v>35394</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>58020</v>
+        <v>56510</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>88363</v>
+        <v>88910</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>35382</v>
+        <v>34784</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>37978</v>
+        <v>38519</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>99834</v>
+        <v>99764</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>60682</v>
+        <v>59548</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>87656</v>
+        <v>85731</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>176351</v>
+        <v>174685</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20468</v>
+        <v>20565</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18388</v>
+        <v>17653</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>79346</v>
+        <v>79454</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4982</v>
+        <v>5007</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17272</v>
+        <v>17760</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>73948</v>
+        <v>74369</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>29359</v>
+        <v>28395</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>40224</v>
+        <v>40106</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>160917</v>
+        <v>161883</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44374</v>
+        <v>44294</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38553</v>
+        <v>38039</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>115746</v>
+        <v>117378</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18059</v>
+        <v>17857</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>38060</v>
+        <v>38674</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>105288</v>
+        <v>103130</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>55010</v>
+        <v>53684</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>68126</v>
+        <v>69294</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>209364</v>
+        <v>208845</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>87290</v>
+        <v>88309</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>75979</v>
+        <v>77367</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>179427</v>
+        <v>178814</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>76703</v>
+        <v>76736</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>69603</v>
+        <v>70288</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>201605</v>
+        <v>198484</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>175996</v>
+        <v>175615</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>158419</v>
+        <v>155593</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>394932</v>
+        <v>393928</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>128971</v>
+        <v>129762</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>113665</v>
+        <v>117672</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>234460</v>
+        <v>232845</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>117731</v>
+        <v>117116</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>107471</v>
+        <v>109404</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>252129</v>
+        <v>250887</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>233554</v>
+        <v>232245</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>210328</v>
+        <v>209403</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>473096</v>
+        <v>469108</v>
       </c>
     </row>
     <row r="24">
